--- a/02_Checklist.xlsx
+++ b/02_Checklist.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -511,9 +511,6 @@
     <t>Поиск авиабилетов в одну сторону на выбранную дату</t>
   </si>
   <si>
-    <t>выбрать львов-мюнхен, результаты поиска отфильтровать по "Варшава" - в списке другие города с пересадками</t>
-  </si>
-  <si>
     <t>При изменении поискового запроса - результаты поиска перегружаются на странице</t>
   </si>
   <si>
@@ -553,12 +550,6 @@
     <t>Успешный переход на список предложений со скидкой через превью на главной странице</t>
   </si>
   <si>
-    <t>переходит на список поиска, а не конкретное предложение</t>
-  </si>
-  <si>
-    <t>не совпадает стоимость предложения</t>
-  </si>
-  <si>
     <t>Поиск с невалидным запросом нельзя сделать</t>
   </si>
   <si>
@@ -574,9 +565,6 @@
     <t>ADR21</t>
   </si>
   <si>
-    <t>перегружает страницу и перебрасывает на страницу с поиском</t>
-  </si>
-  <si>
     <t>https://devchallenge12.atlassian.net/browse/DEV-1</t>
   </si>
   <si>
@@ -590,6 +578,12 @@
   </si>
   <si>
     <t>https://devchallenge12.atlassian.net/browse/DEV-4</t>
+  </si>
+  <si>
+    <t>https://devchallenge12.atlassian.net/browse/DEV-5</t>
+  </si>
+  <si>
+    <t>https://devchallenge12.atlassian.net/browse/DEV-6</t>
   </si>
 </sst>
 </file>
@@ -742,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1002,12 +996,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1266,6 +1284,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3748,8 +3778,8 @@
   <dimension ref="A1:V785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3789,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -3868,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>10</v>
@@ -3994,7 +4024,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F10" s="80">
         <v>43274</v>
@@ -4164,7 +4194,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F17" s="80">
         <v>43274</v>
@@ -4256,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>10</v>
@@ -4304,7 +4334,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>10</v>
@@ -4352,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>10</v>
@@ -4376,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>10</v>
@@ -4410,7 +4440,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="58" t="s">
         <v>10</v>
@@ -4444,13 +4474,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="97" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F28" s="80">
         <v>43274</v>
@@ -4827,14 +4857,12 @@
         <v>18</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F44" s="80">
         <v>43274</v>
       </c>
-      <c r="G44" s="81" t="s">
-        <v>163</v>
-      </c>
+      <c r="G44" s="81"/>
       <c r="N44" s="21"/>
     </row>
     <row r="45" spans="1:19" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4879,19 +4907,19 @@
     </row>
     <row r="47" spans="1:19" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="58" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F47" s="80">
         <v>43274</v>
@@ -4907,9 +4935,9 @@
       <c r="C48" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="100"/>
       <c r="G48" s="8"/>
       <c r="N48" s="51" t="s">
         <v>7</v>
@@ -4935,18 +4963,18 @@
         <v>15</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="90"/>
+      <c r="E49" s="91" t="s">
+        <v>186</v>
+      </c>
       <c r="F49" s="80">
         <v>43274</v>
       </c>
-      <c r="G49" s="88" t="s">
-        <v>177</v>
-      </c>
+      <c r="G49" s="88"/>
       <c r="N49" s="51" t="s">
         <v>11</v>
       </c>
@@ -4971,7 +4999,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" s="87" t="s">
         <v>10</v>
@@ -5069,8 +5097,8 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="89"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="101"/>
       <c r="N54" s="51" t="s">
         <v>7</v>
       </c>
@@ -5138,18 +5166,18 @@
         <v>9</v>
       </c>
       <c r="C57" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="13"/>
+      <c r="E57" s="82" t="s">
+        <v>186</v>
+      </c>
       <c r="F57" s="80">
         <v>43274</v>
       </c>
-      <c r="G57" s="81" t="s">
-        <v>178</v>
-      </c>
+      <c r="G57" s="81"/>
       <c r="O57" s="51"/>
     </row>
     <row r="58" spans="1:19" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5160,7 +5188,7 @@
         <v>16</v>
       </c>
       <c r="C58" s="68" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D58" s="65" t="s">
         <v>10</v>
@@ -5235,7 +5263,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="58" t="s">
         <v>10</v>
@@ -5260,7 +5288,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="58" t="s">
         <v>10</v>
@@ -5285,7 +5313,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D63" s="58" t="s">
         <v>10</v>
@@ -5509,7 +5537,7 @@
     </row>
     <row r="74" spans="1:14" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>9</v>
@@ -5520,18 +5548,18 @@
       <c r="D74" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="13"/>
+      <c r="E74" s="82" t="s">
+        <v>187</v>
+      </c>
       <c r="F74" s="80">
         <v>43274</v>
       </c>
-      <c r="G74" s="81" t="s">
-        <v>184</v>
-      </c>
+      <c r="G74" s="81"/>
       <c r="N74" s="21"/>
     </row>
     <row r="75" spans="1:14" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="77" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>15</v>
@@ -9612,7 +9640,7 @@
     <dataValidation type="list" allowBlank="1" sqref="B49:B53 B4:B28 B30:B47 B55:B75">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D28 D30:D47 D49:D53 D55:D75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D28 D30:D47 D55:D75 D49:D53">
       <formula1>"Passed,Failed,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9622,9 +9650,12 @@
     <hyperlink ref="E28" r:id="rId3"/>
     <hyperlink ref="E44" r:id="rId4"/>
     <hyperlink ref="E47" r:id="rId5"/>
+    <hyperlink ref="E49" r:id="rId6"/>
+    <hyperlink ref="E57" r:id="rId7"/>
+    <hyperlink ref="E74" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
